--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3820.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3820.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.468052228002662</v>
+        <v>6.022537231445312</v>
       </c>
       <c r="B1">
-        <v>1.917752459422326</v>
+        <v>4.748425483703613</v>
       </c>
       <c r="C1">
-        <v>2.980808196862501</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.807207730885616</v>
+        <v>4.369626045227051</v>
       </c>
       <c r="E1">
-        <v>0.8522894607862136</v>
+        <v>2.588987350463867</v>
       </c>
     </row>
   </sheetData>
